--- a/Unity/Assets/Config/Excel/L10nConfig.xlsx
+++ b/Unity/Assets/Config/Excel/L10nConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5557" uniqueCount="1141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5767" uniqueCount="1201">
   <si>
     <t>##var</t>
   </si>
@@ -3450,6 +3450,186 @@
   </si>
   <si>
     <t>获得10012金币</t>
+  </si>
+  <si>
+    <t>talentname_70001</t>
+  </si>
+  <si>
+    <t>天赋70001</t>
+  </si>
+  <si>
+    <t>talentname_70002</t>
+  </si>
+  <si>
+    <t>天赋70002</t>
+  </si>
+  <si>
+    <t>talentname_70003</t>
+  </si>
+  <si>
+    <t>天赋70003</t>
+  </si>
+  <si>
+    <t>talentname_70004</t>
+  </si>
+  <si>
+    <t>天赋70004</t>
+  </si>
+  <si>
+    <t>talentname_70005</t>
+  </si>
+  <si>
+    <t>天赋70005</t>
+  </si>
+  <si>
+    <t>talentname_70006</t>
+  </si>
+  <si>
+    <t>天赋70006</t>
+  </si>
+  <si>
+    <t>talentname_70007</t>
+  </si>
+  <si>
+    <t>天赋70007</t>
+  </si>
+  <si>
+    <t>talentname_70008</t>
+  </si>
+  <si>
+    <t>天赋70008</t>
+  </si>
+  <si>
+    <t>talentname_70009</t>
+  </si>
+  <si>
+    <t>天赋70009</t>
+  </si>
+  <si>
+    <t>talentname_70010</t>
+  </si>
+  <si>
+    <t>天赋70010</t>
+  </si>
+  <si>
+    <t>talentname_70011</t>
+  </si>
+  <si>
+    <t>天赋70011</t>
+  </si>
+  <si>
+    <t>talentname_70012</t>
+  </si>
+  <si>
+    <t>天赋70012</t>
+  </si>
+  <si>
+    <t>talentname_70013</t>
+  </si>
+  <si>
+    <t>天赋70013</t>
+  </si>
+  <si>
+    <t>talentname_70014</t>
+  </si>
+  <si>
+    <t>天赋70014</t>
+  </si>
+  <si>
+    <t>talentname_70015</t>
+  </si>
+  <si>
+    <t>天赋70015</t>
+  </si>
+  <si>
+    <t>talentdesc_70001</t>
+  </si>
+  <si>
+    <t>天赋描述70001</t>
+  </si>
+  <si>
+    <t>talentdesc_70002</t>
+  </si>
+  <si>
+    <t>天赋描述70002</t>
+  </si>
+  <si>
+    <t>talentdesc_70003</t>
+  </si>
+  <si>
+    <t>天赋描述70003</t>
+  </si>
+  <si>
+    <t>talentdesc_70004</t>
+  </si>
+  <si>
+    <t>天赋描述70004</t>
+  </si>
+  <si>
+    <t>talentdesc_70005</t>
+  </si>
+  <si>
+    <t>天赋描述70005</t>
+  </si>
+  <si>
+    <t>talentdesc_70006</t>
+  </si>
+  <si>
+    <t>天赋描述70006</t>
+  </si>
+  <si>
+    <t>talentdesc_70007</t>
+  </si>
+  <si>
+    <t>天赋描述70007</t>
+  </si>
+  <si>
+    <t>talentdesc_70008</t>
+  </si>
+  <si>
+    <t>天赋描述70008</t>
+  </si>
+  <si>
+    <t>talentdesc_70009</t>
+  </si>
+  <si>
+    <t>天赋描述70009</t>
+  </si>
+  <si>
+    <t>talentdesc_70010</t>
+  </si>
+  <si>
+    <t>天赋描述70010</t>
+  </si>
+  <si>
+    <t>talentdesc_70011</t>
+  </si>
+  <si>
+    <t>天赋描述70011</t>
+  </si>
+  <si>
+    <t>talentdesc_70012</t>
+  </si>
+  <si>
+    <t>天赋描述70012</t>
+  </si>
+  <si>
+    <t>talentdesc_70013</t>
+  </si>
+  <si>
+    <t>天赋描述70013</t>
+  </si>
+  <si>
+    <t>talentdesc_70014</t>
+  </si>
+  <si>
+    <t>天赋描述70014</t>
+  </si>
+  <si>
+    <t>talentdesc_70015</t>
+  </si>
+  <si>
+    <t>天赋描述70015</t>
   </si>
 </sst>
 </file>
@@ -4452,10 +4632,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1099"/>
+  <dimension ref="A1:H1129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1079" workbookViewId="0">
-      <selection activeCell="I1084" sqref="I1084"/>
+    <sheetView tabSelected="1" topLeftCell="A1105" workbookViewId="0">
+      <selection activeCell="H1125" sqref="H1125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -29755,6 +29935,696 @@
         <v>20</v>
       </c>
     </row>
+    <row r="1100" spans="2:8">
+      <c r="B1100" s="4" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C1100" s="4" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D1100" s="4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E1100" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1100" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1100" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1100" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1101" spans="2:8">
+      <c r="B1101" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C1101" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D1101" s="4" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E1101" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1101" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1101" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1101" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1102" spans="2:8">
+      <c r="B1102" s="4" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C1102" s="4" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D1102" s="4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E1102" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1102" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1102" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1102" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1103" spans="2:8">
+      <c r="B1103" s="4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C1103" s="4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D1103" s="4" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E1103" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1103" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1103" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1103" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1104" spans="2:8">
+      <c r="B1104" s="4" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C1104" s="4" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D1104" s="4" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E1104" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1104" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1104" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1104" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1105" spans="2:8">
+      <c r="B1105" s="4" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C1105" s="4" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D1105" s="4" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E1105" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1105" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1105" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1105" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1106" spans="2:8">
+      <c r="B1106" s="4" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C1106" s="4" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D1106" s="4" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E1106" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1106" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1106" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1106" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1107" spans="2:8">
+      <c r="B1107" s="4" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C1107" s="4" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D1107" s="4" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E1107" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1107" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1107" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1107" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1108" spans="2:8">
+      <c r="B1108" s="4" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C1108" s="4" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D1108" s="4" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E1108" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1108" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1108" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1108" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1109" spans="2:8">
+      <c r="B1109" s="4" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C1109" s="4" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D1109" s="4" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E1109" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1109" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1109" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1109" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1110" spans="2:8">
+      <c r="B1110" s="4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C1110" s="4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D1110" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E1110" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1110" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1110" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1110" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1111" spans="2:8">
+      <c r="B1111" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C1111" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D1111" s="4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E1111" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1111" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1111" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1111" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1112" spans="2:8">
+      <c r="B1112" s="4" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C1112" s="4" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D1112" s="4" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E1112" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1112" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1112" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1112" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1113" spans="2:8">
+      <c r="B1113" s="4" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C1113" s="4" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D1113" s="4" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E1113" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1113" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1113" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1113" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1114" spans="2:8">
+      <c r="B1114" s="4" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C1114" s="4" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D1114" s="4" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E1114" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1114" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1114" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1114" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1115" spans="2:8">
+      <c r="B1115" s="4" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C1115" s="4" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D1115" s="4" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E1115" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1115" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1115" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1115" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1116" spans="2:8">
+      <c r="B1116" s="4" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C1116" s="4" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D1116" s="4" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E1116" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1116" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1116" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1116" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1117" spans="2:8">
+      <c r="B1117" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C1117" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D1117" s="4" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E1117" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1117" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1117" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1117" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1118" spans="2:8">
+      <c r="B1118" s="4" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C1118" s="4" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D1118" s="4" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E1118" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1118" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1118" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1118" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1119" spans="2:8">
+      <c r="B1119" s="4" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C1119" s="4" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D1119" s="4" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E1119" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1119" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1119" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1119" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1120" spans="2:8">
+      <c r="B1120" s="4" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C1120" s="4" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D1120" s="4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E1120" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1120" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1120" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1120" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1121" spans="2:8">
+      <c r="B1121" s="4" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C1121" s="4" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D1121" s="4" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E1121" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1121" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1121" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1121" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1122" spans="2:8">
+      <c r="B1122" s="4" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C1122" s="4" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D1122" s="4" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E1122" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1122" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1122" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1122" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1123" spans="2:8">
+      <c r="B1123" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C1123" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D1123" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E1123" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1123" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1123" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1123" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1124" spans="2:8">
+      <c r="B1124" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C1124" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D1124" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E1124" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1124" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1124" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1124" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1125" spans="2:8">
+      <c r="B1125" s="4" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C1125" s="4" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D1125" s="4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E1125" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1125" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1125" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1125" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1126" spans="2:8">
+      <c r="B1126" s="4" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C1126" s="4" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D1126" s="4" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E1126" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1126" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1126" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1126" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1127" spans="2:8">
+      <c r="B1127" s="4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C1127" s="4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D1127" s="4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E1127" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1127" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1127" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1127" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1128" spans="2:8">
+      <c r="B1128" s="4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C1128" s="4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D1128" s="4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E1128" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1128" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1128" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1128" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1129" spans="2:8">
+      <c r="B1129" s="4" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C1129" s="4" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D1129" s="4" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E1129" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1129" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1129" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1129" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Unity/Assets/Config/Excel/L10nConfig.xlsx
+++ b/Unity/Assets/Config/Excel/L10nConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="809" activeTab="1"/>
+    <workbookView windowWidth="20175" windowHeight="8325" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="道具名称" sheetId="6" r:id="rId1"/>
@@ -9424,7 +9424,7 @@
   <sheetPr/>
   <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -11421,7 +11421,7 @@
   <sheetPr/>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>

--- a/Unity/Assets/Config/Excel/L10nConfig.xlsx
+++ b/Unity/Assets/Config/Excel/L10nConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24645" windowHeight="10455" tabRatio="809"/>
+    <workbookView windowWidth="24645" windowHeight="10455" tabRatio="809" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="道具名称" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10965" uniqueCount="3233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11085" uniqueCount="3273">
   <si>
     <t>##var</t>
   </si>
@@ -9781,6 +9781,126 @@
   </si>
   <si>
     <t>技能描述112010</t>
+  </si>
+  <si>
+    <t>skillname_113001</t>
+  </si>
+  <si>
+    <t>技能113001</t>
+  </si>
+  <si>
+    <t>skillname_113002</t>
+  </si>
+  <si>
+    <t>技能113002</t>
+  </si>
+  <si>
+    <t>skillname_113003</t>
+  </si>
+  <si>
+    <t>技能113003</t>
+  </si>
+  <si>
+    <t>skillname_113004</t>
+  </si>
+  <si>
+    <t>技能113004</t>
+  </si>
+  <si>
+    <t>skillname_113005</t>
+  </si>
+  <si>
+    <t>技能113005</t>
+  </si>
+  <si>
+    <t>skillname_113006</t>
+  </si>
+  <si>
+    <t>技能113006</t>
+  </si>
+  <si>
+    <t>skillname_113007</t>
+  </si>
+  <si>
+    <t>技能113007</t>
+  </si>
+  <si>
+    <t>skillname_113008</t>
+  </si>
+  <si>
+    <t>技能113008</t>
+  </si>
+  <si>
+    <t>skillname_113009</t>
+  </si>
+  <si>
+    <t>技能113009</t>
+  </si>
+  <si>
+    <t>skillname_113010</t>
+  </si>
+  <si>
+    <t>技能113010</t>
+  </si>
+  <si>
+    <t>skilldesc_113001</t>
+  </si>
+  <si>
+    <t>技能描述113001</t>
+  </si>
+  <si>
+    <t>skilldesc_113002</t>
+  </si>
+  <si>
+    <t>技能描述113002</t>
+  </si>
+  <si>
+    <t>skilldesc_113003</t>
+  </si>
+  <si>
+    <t>技能描述113003</t>
+  </si>
+  <si>
+    <t>skilldesc_113004</t>
+  </si>
+  <si>
+    <t>技能描述113004</t>
+  </si>
+  <si>
+    <t>skilldesc_113005</t>
+  </si>
+  <si>
+    <t>技能描述113005</t>
+  </si>
+  <si>
+    <t>skilldesc_113006</t>
+  </si>
+  <si>
+    <t>技能描述113006</t>
+  </si>
+  <si>
+    <t>skilldesc_113007</t>
+  </si>
+  <si>
+    <t>技能描述113007</t>
+  </si>
+  <si>
+    <t>skilldesc_113008</t>
+  </si>
+  <si>
+    <t>技能描述113008</t>
+  </si>
+  <si>
+    <t>skilldesc_113009</t>
+  </si>
+  <si>
+    <t>技能描述113009</t>
+  </si>
+  <si>
+    <t>skilldesc_113010</t>
+  </si>
+  <si>
+    <t>技能描述113010</t>
   </si>
 </sst>
 </file>
@@ -10816,8 +10936,8 @@
   <sheetPr/>
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -15058,10 +15178,10 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -15961,6 +16081,406 @@
         <v>22</v>
       </c>
       <c r="G44" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="4" t="s">
+        <v>3233</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>3234</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="4" t="s">
+        <v>3235</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>3236</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="4" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>3238</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="4" t="s">
+        <v>3239</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>3240</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="4" t="s">
+        <v>3241</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>3242</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="4" t="s">
+        <v>3243</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>3244</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="4" t="s">
+        <v>3245</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>3246</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="4" t="s">
+        <v>3247</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>3248</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="4" t="s">
+        <v>3249</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>3250</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="4" t="s">
+        <v>3251</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>3252</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="4" t="s">
+        <v>3253</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>3254</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" s="4" t="s">
+        <v>3255</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>3256</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" s="4" t="s">
+        <v>3257</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>3258</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" s="4" t="s">
+        <v>3259</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>3260</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" s="4" t="s">
+        <v>3261</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>3262</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" s="4" t="s">
+        <v>3263</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>3264</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" s="4" t="s">
+        <v>3265</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62" s="4" t="s">
+        <v>3267</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>3268</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63" s="4" t="s">
+        <v>3269</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>3270</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64" s="4" t="s">
+        <v>3271</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>3272</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" s="10" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/L10nConfig.xlsx
+++ b/Unity/Assets/Config/Excel/L10nConfig.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10956" uniqueCount="3204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10968" uniqueCount="3207">
   <si>
     <t>##var</t>
   </si>
@@ -9640,6 +9640,12 @@
     <t>技能210001</t>
   </si>
   <si>
+    <t>castname_210002</t>
+  </si>
+  <si>
+    <t>技能210002</t>
+  </si>
+  <si>
     <t>castname_310001</t>
   </si>
   <si>
@@ -9692,6 +9698,9 @@
   </si>
   <si>
     <t>castdesc_210001</t>
+  </si>
+  <si>
+    <t>castdesc_210002</t>
   </si>
   <si>
     <t>castdesc_310001</t>
@@ -14965,10 +14974,10 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -15412,11 +15421,25 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="4:7">
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+    <row r="22" spans="2:7">
+      <c r="B22" s="4" t="s">
+        <v>3187</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="23" spans="4:7">
       <c r="D23" s="9"/>
@@ -15669,6 +15692,12 @@
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
+    </row>
+    <row r="65" spans="4:7">
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15679,10 +15708,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -15787,7 +15816,7 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="4" t="s">
-        <v>3187</v>
+        <v>3189</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>3154</v>
@@ -15807,7 +15836,7 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="4" t="s">
-        <v>3188</v>
+        <v>3190</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>3156</v>
@@ -15827,7 +15856,7 @@
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="4" t="s">
-        <v>3189</v>
+        <v>3191</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>3158</v>
@@ -15847,7 +15876,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="4" t="s">
-        <v>3190</v>
+        <v>3192</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>3160</v>
@@ -15867,7 +15896,7 @@
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="4" t="s">
-        <v>3191</v>
+        <v>3193</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>3162</v>
@@ -15887,7 +15916,7 @@
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="4" t="s">
-        <v>3192</v>
+        <v>3194</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>3164</v>
@@ -15907,7 +15936,7 @@
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="4" t="s">
-        <v>3193</v>
+        <v>3195</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>3166</v>
@@ -15927,7 +15956,7 @@
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="4" t="s">
-        <v>3194</v>
+        <v>3196</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>3168</v>
@@ -15947,7 +15976,7 @@
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="4" t="s">
-        <v>3195</v>
+        <v>3197</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>3170</v>
@@ -15967,7 +15996,7 @@
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="4" t="s">
-        <v>3196</v>
+        <v>3198</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>3172</v>
@@ -15987,7 +16016,7 @@
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="4" t="s">
-        <v>3197</v>
+        <v>3199</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>3174</v>
@@ -16007,7 +16036,7 @@
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="4" t="s">
-        <v>3198</v>
+        <v>3200</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>3176</v>
@@ -16027,7 +16056,7 @@
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="4" t="s">
-        <v>3199</v>
+        <v>3201</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>3178</v>
@@ -16047,7 +16076,7 @@
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="4" t="s">
-        <v>3200</v>
+        <v>3202</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>3180</v>
@@ -16067,7 +16096,7 @@
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="4" t="s">
-        <v>3201</v>
+        <v>3203</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>3182</v>
@@ -16087,7 +16116,7 @@
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="4" t="s">
-        <v>3202</v>
+        <v>3204</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>3184</v>
@@ -16107,7 +16136,7 @@
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="4" t="s">
-        <v>3203</v>
+        <v>3205</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>3186</v>
@@ -16122,6 +16151,26 @@
         <v>22</v>
       </c>
       <c r="G21" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="4" t="s">
+        <v>3206</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/L10nConfig.xlsx
+++ b/Unity/Assets/Config/Excel/L10nConfig.xlsx
@@ -15711,7 +15711,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>

--- a/Unity/Assets/Config/Excel/L10nConfig.xlsx
+++ b/Unity/Assets/Config/Excel/L10nConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23265" windowHeight="10455" tabRatio="809" activeTab="13"/>
+    <workbookView windowWidth="23265" windowHeight="10455" tabRatio="809" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="道具名称" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10968" uniqueCount="3207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10992" uniqueCount="3213">
   <si>
     <t>##var</t>
   </si>
@@ -9652,6 +9652,18 @@
     <t>技能310001</t>
   </si>
   <si>
+    <t>castname_310002</t>
+  </si>
+  <si>
+    <t>技能310002</t>
+  </si>
+  <si>
+    <t>castname_310003</t>
+  </si>
+  <si>
+    <t>技能310003</t>
+  </si>
+  <si>
     <t>castdesc_110001</t>
   </si>
   <si>
@@ -9704,6 +9716,12 @@
   </si>
   <si>
     <t>castdesc_310001</t>
+  </si>
+  <si>
+    <t>castdesc_310002</t>
+  </si>
+  <si>
+    <t>castdesc_310003</t>
   </si>
 </sst>
 </file>
@@ -14976,8 +14994,8 @@
   <sheetPr/>
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -15441,17 +15459,45 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="4:7">
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="4:7">
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
+    <row r="23" spans="2:7">
+      <c r="B23" s="4" t="s">
+        <v>3189</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>3190</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="4" t="s">
+        <v>3191</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>3192</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="4:7">
       <c r="D25" s="9"/>
@@ -15708,10 +15754,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -15816,7 +15862,7 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="4" t="s">
-        <v>3189</v>
+        <v>3193</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>3154</v>
@@ -15836,7 +15882,7 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="4" t="s">
-        <v>3190</v>
+        <v>3194</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>3156</v>
@@ -15856,7 +15902,7 @@
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="4" t="s">
-        <v>3191</v>
+        <v>3195</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>3158</v>
@@ -15876,7 +15922,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="4" t="s">
-        <v>3192</v>
+        <v>3196</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>3160</v>
@@ -15896,7 +15942,7 @@
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="4" t="s">
-        <v>3193</v>
+        <v>3197</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>3162</v>
@@ -15916,7 +15962,7 @@
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="4" t="s">
-        <v>3194</v>
+        <v>3198</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>3164</v>
@@ -15936,7 +15982,7 @@
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="4" t="s">
-        <v>3195</v>
+        <v>3199</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>3166</v>
@@ -15956,7 +16002,7 @@
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="4" t="s">
-        <v>3196</v>
+        <v>3200</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>3168</v>
@@ -15976,7 +16022,7 @@
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="4" t="s">
-        <v>3197</v>
+        <v>3201</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>3170</v>
@@ -15996,7 +16042,7 @@
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="4" t="s">
-        <v>3198</v>
+        <v>3202</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>3172</v>
@@ -16016,7 +16062,7 @@
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="4" t="s">
-        <v>3199</v>
+        <v>3203</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>3174</v>
@@ -16036,7 +16082,7 @@
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="4" t="s">
-        <v>3200</v>
+        <v>3204</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>3176</v>
@@ -16056,7 +16102,7 @@
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="4" t="s">
-        <v>3201</v>
+        <v>3205</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>3178</v>
@@ -16076,7 +16122,7 @@
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="4" t="s">
-        <v>3202</v>
+        <v>3206</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>3180</v>
@@ -16096,7 +16142,7 @@
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="4" t="s">
-        <v>3203</v>
+        <v>3207</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>3182</v>
@@ -16116,7 +16162,7 @@
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="4" t="s">
-        <v>3204</v>
+        <v>3208</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>3184</v>
@@ -16136,7 +16182,7 @@
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="4" t="s">
-        <v>3205</v>
+        <v>3209</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>3186</v>
@@ -16156,7 +16202,7 @@
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="4" t="s">
-        <v>3206</v>
+        <v>3210</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>3188</v>
@@ -16171,6 +16217,46 @@
         <v>22</v>
       </c>
       <c r="G22" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="4" t="s">
+        <v>3211</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>3190</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="4" t="s">
+        <v>3212</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>3192</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="9" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/L10nConfig.xlsx
+++ b/Unity/Assets/Config/Excel/L10nConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23265" windowHeight="10455" tabRatio="809" activeTab="15"/>
+    <workbookView windowWidth="25350" windowHeight="10455" tabRatio="809" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="道具名称" sheetId="6" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11130" uniqueCount="3241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11166" uniqueCount="3251">
   <si>
     <t>##var</t>
   </si>
@@ -9666,6 +9666,18 @@
     <t>技能310003</t>
   </si>
   <si>
+    <t>castname_140001</t>
+  </si>
+  <si>
+    <t>技能140001</t>
+  </si>
+  <si>
+    <t>castname_150001</t>
+  </si>
+  <si>
+    <t>技能150001</t>
+  </si>
+  <si>
     <t>castdesc_110001</t>
   </si>
   <si>
@@ -9726,6 +9738,12 @@
     <t>castdesc_310003</t>
   </si>
   <si>
+    <t>castdesc_140001</t>
+  </si>
+  <si>
+    <t>castdesc_150001</t>
+  </si>
+  <si>
     <t>buffname_40001</t>
   </si>
   <si>
@@ -9768,6 +9786,12 @@
     <t>buff名称40007</t>
   </si>
   <si>
+    <t>buffname_40008</t>
+  </si>
+  <si>
+    <t>buff名称40008</t>
+  </si>
+  <si>
     <t>buffdesc_40001</t>
   </si>
   <si>
@@ -9808,6 +9832,12 @@
   </si>
   <si>
     <t>buff描述40007</t>
+  </si>
+  <si>
+    <t>buffdesc_40008</t>
+  </si>
+  <si>
+    <t>buff描述40008</t>
   </si>
 </sst>
 </file>
@@ -15084,7 +15114,7 @@
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -15588,17 +15618,45 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="4:7">
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="4:7">
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
+    <row r="25" spans="2:7">
+      <c r="B25" s="8" t="s">
+        <v>3193</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>3194</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="8" t="s">
+        <v>3195</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>3196</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="27" spans="4:7">
       <c r="D27" s="10"/>
@@ -15843,10 +15901,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -15951,7 +16009,7 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="8" t="s">
-        <v>3193</v>
+        <v>3197</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>3154</v>
@@ -15971,7 +16029,7 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="8" t="s">
-        <v>3194</v>
+        <v>3198</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>3156</v>
@@ -15991,7 +16049,7 @@
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="8" t="s">
-        <v>3195</v>
+        <v>3199</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>3158</v>
@@ -16011,7 +16069,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="8" t="s">
-        <v>3196</v>
+        <v>3200</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>3160</v>
@@ -16031,7 +16089,7 @@
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="8" t="s">
-        <v>3197</v>
+        <v>3201</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>3162</v>
@@ -16051,7 +16109,7 @@
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="8" t="s">
-        <v>3198</v>
+        <v>3202</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>3164</v>
@@ -16071,7 +16129,7 @@
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="8" t="s">
-        <v>3199</v>
+        <v>3203</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>3166</v>
@@ -16091,7 +16149,7 @@
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="8" t="s">
-        <v>3200</v>
+        <v>3204</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>3168</v>
@@ -16111,7 +16169,7 @@
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="8" t="s">
-        <v>3201</v>
+        <v>3205</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>3170</v>
@@ -16131,7 +16189,7 @@
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="8" t="s">
-        <v>3202</v>
+        <v>3206</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>3172</v>
@@ -16151,7 +16209,7 @@
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="8" t="s">
-        <v>3203</v>
+        <v>3207</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>3174</v>
@@ -16171,7 +16229,7 @@
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="8" t="s">
-        <v>3204</v>
+        <v>3208</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>3176</v>
@@ -16191,7 +16249,7 @@
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="8" t="s">
-        <v>3205</v>
+        <v>3209</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>3178</v>
@@ -16211,7 +16269,7 @@
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="8" t="s">
-        <v>3206</v>
+        <v>3210</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>3180</v>
@@ -16231,7 +16289,7 @@
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="8" t="s">
-        <v>3207</v>
+        <v>3211</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>3182</v>
@@ -16251,7 +16309,7 @@
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="8" t="s">
-        <v>3208</v>
+        <v>3212</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>3184</v>
@@ -16271,7 +16329,7 @@
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="8" t="s">
-        <v>3209</v>
+        <v>3213</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>3186</v>
@@ -16291,7 +16349,7 @@
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="8" t="s">
-        <v>3210</v>
+        <v>3214</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>3188</v>
@@ -16311,7 +16369,7 @@
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="8" t="s">
-        <v>3211</v>
+        <v>3215</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>3190</v>
@@ -16331,7 +16389,7 @@
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="8" t="s">
-        <v>3212</v>
+        <v>3216</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>3192</v>
@@ -16346,6 +16404,46 @@
         <v>22</v>
       </c>
       <c r="G24" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="8" t="s">
+        <v>3217</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>3194</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="8" t="s">
+        <v>3218</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>3196</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -16358,10 +16456,10 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -16466,10 +16564,10 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="8" t="s">
-        <v>3213</v>
+        <v>3219</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>3214</v>
+        <v>3220</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>20</v>
@@ -16486,10 +16584,10 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="8" t="s">
-        <v>3215</v>
+        <v>3221</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>3216</v>
+        <v>3222</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>20</v>
@@ -16506,10 +16604,10 @@
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="8" t="s">
-        <v>3217</v>
+        <v>3223</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>3218</v>
+        <v>3224</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>20</v>
@@ -16526,10 +16624,10 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="8" t="s">
-        <v>3219</v>
+        <v>3225</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>3220</v>
+        <v>3226</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>20</v>
@@ -16546,10 +16644,10 @@
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="8" t="s">
-        <v>3221</v>
+        <v>3227</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>3222</v>
+        <v>3228</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>20</v>
@@ -16566,10 +16664,10 @@
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="8" t="s">
-        <v>3223</v>
+        <v>3229</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>3224</v>
+        <v>3230</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>20</v>
@@ -16586,10 +16684,10 @@
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="8" t="s">
-        <v>3225</v>
+        <v>3231</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>3226</v>
+        <v>3232</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>20</v>
@@ -16601,6 +16699,26 @@
         <v>22</v>
       </c>
       <c r="G11" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="8" t="s">
+        <v>3233</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>3234</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -16613,10 +16731,10 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -16721,10 +16839,10 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="8" t="s">
-        <v>3227</v>
+        <v>3235</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>3228</v>
+        <v>3236</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>20</v>
@@ -16741,10 +16859,10 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="8" t="s">
-        <v>3229</v>
+        <v>3237</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>3230</v>
+        <v>3238</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>20</v>
@@ -16761,10 +16879,10 @@
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="8" t="s">
-        <v>3231</v>
+        <v>3239</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>3232</v>
+        <v>3240</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>20</v>
@@ -16781,10 +16899,10 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="8" t="s">
-        <v>3233</v>
+        <v>3241</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>3234</v>
+        <v>3242</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>20</v>
@@ -16801,10 +16919,10 @@
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="8" t="s">
-        <v>3235</v>
+        <v>3243</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>3236</v>
+        <v>3244</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>20</v>
@@ -16821,10 +16939,10 @@
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="8" t="s">
-        <v>3237</v>
+        <v>3245</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>3238</v>
+        <v>3246</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>20</v>
@@ -16841,10 +16959,10 @@
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="8" t="s">
-        <v>3239</v>
+        <v>3247</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>3240</v>
+        <v>3248</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>20</v>
@@ -16856,6 +16974,26 @@
         <v>22</v>
       </c>
       <c r="G11" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="8" t="s">
+        <v>3249</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>3250</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>23</v>
       </c>
     </row>
